--- a/barListAppended.xlsx
+++ b/barListAppended.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="809">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -130,6 +130,12 @@
     <t xml:space="preserve">Taft Tuesdays - Enjoy Half-Price Pints &amp; Growler Fills ALL DAY by wearing any Brewery or Beer Apparel. Don’t have any threads? Stop-n-shop in Nellie’s Tap Room to pick up your gear!</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.111325"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.51750995"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Sundry and Vice"</t>
   </si>
   <si>
@@ -157,6 +163,12 @@
     <t xml:space="preserve">"12PM–12AM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1094369"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5160001"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"The Rook OTR"</t>
   </si>
   <si>
@@ -179,6 +191,12 @@
   </si>
   <si>
     <t xml:space="preserve">"Lots of different events. "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1076943"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5148587"</t>
   </si>
   <si>
     <t xml:space="preserve">The Lackman</t>
@@ -205,6 +223,12 @@
 $3.25 Domestics
 $4.50 Calls
 $5 Dark Horse Wines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1093292"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5152165"</t>
   </si>
   <si>
     <t xml:space="preserve">Japp's - Since 1879</t>
@@ -247,6 +271,12 @@
 Live Happy Hour Music Every Saturday. </t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1088678"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5113795"</t>
+  </si>
+  <si>
     <t xml:space="preserve">rhinehaus</t>
   </si>
   <si>
@@ -268,6 +298,12 @@
     <t xml:space="preserve">"7AM–12AM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.108539"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5124497"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Motr Pub</t>
   </si>
   <si>
@@ -289,6 +325,12 @@
     <t xml:space="preserve">"10AM–2:30AM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.111099"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5123402"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Bakersfield OTR"</t>
   </si>
   <si>
@@ -304,6 +346,12 @@
     <t xml:space="preserve">http://www.bakersfieldtacos.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1086918"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5150696"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Below Zero Lounge"</t>
   </si>
   <si>
@@ -322,6 +370,12 @@
     <t xml:space="preserve">"Happy Hour, 4-8pm"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.10836"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5128840013411"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"1215 Wine Bar &amp; Coffee Lab"</t>
   </si>
   <si>
@@ -350,6 +404,12 @@
   </si>
   <si>
     <t xml:space="preserve">"9AM–7PM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1072609"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.514515"</t>
   </si>
   <si>
     <t xml:space="preserve">"Revolution Rotisserie &amp; Bar"</t>
@@ -407,6 +467,12 @@
 Six Dollar Wines By the Glass
 Six Dollar Mules/Sangrias
 Complimentary Bottomless Tater Tots during Happy Hour with purchase of alcoholic beverage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1073976"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5159119"</t>
   </si>
   <si>
     <t xml:space="preserve">"Low Spark"</t>
@@ -460,6 +526,12 @@
 Show your Cincinnati Music Hall tickets or program to receive $1 off drafts, $1 off domestics, and $1 off Tito’s vodka</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1103807"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5163092"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Longfellow"</t>
   </si>
   <si>
@@ -499,6 +571,12 @@
 All Day</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1096956"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5127973"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Queen City Radio"</t>
   </si>
   <si>
@@ -514,6 +592,12 @@
     <t xml:space="preserve">http://qcrbar.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1078318"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.519097"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"HalfCut"</t>
   </si>
   <si>
@@ -532,6 +616,12 @@
     <t xml:space="preserve">"4–10PM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1083636153846"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5130170769231"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Krueger's Tavern"</t>
   </si>
   <si>
@@ -547,6 +637,12 @@
     <t xml:space="preserve">http://www.kruegerstavern.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.10859605"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5152225113226"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Treehouse Patio Bar"</t>
   </si>
   <si>
@@ -556,6 +652,12 @@
     <t xml:space="preserve">http://treehousepatiobar.berlindoener.info/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1092069"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5104021"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zula Restaurant &amp; Wine Bar</t>
   </si>
   <si>
@@ -572,6 +674,12 @@
   </si>
   <si>
     <t xml:space="preserve">"5PM–12AM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.11047"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.516829"</t>
   </si>
   <si>
     <t xml:space="preserve">"Anchor OTR"</t>
@@ -629,6 +737,12 @@
 $12 baskets of Fish &amp; Chios</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1104288"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5171923"</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Tavola Bar + Trattoria</t>
   </si>
   <si>
@@ -647,6 +761,12 @@
     <t xml:space="preserve">"12–10PM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1090279"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5148005"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Nation Kitchen and Bar"</t>
   </si>
   <si>
@@ -668,6 +788,12 @@
     <t xml:space="preserve">"10AM–12AM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1097757"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.508276"</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Drinkery</t>
   </si>
   <si>
@@ -683,6 +809,12 @@
     <t xml:space="preserve">http://www.drinkotr.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1091052"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5114524"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Senate"</t>
   </si>
   <si>
@@ -698,6 +830,12 @@
     <t xml:space="preserve">http://www.senatepub.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1087911"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5147421"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Mr Pitiful's"</t>
   </si>
   <si>
@@ -720,6 +858,12 @@
   </si>
   <si>
     <t xml:space="preserve">"12–8PM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.110617"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.512122"</t>
   </si>
   <si>
     <t xml:space="preserve">"Vestry at the Transept"</t>
@@ -769,6 +913,12 @@
 $4 CALLS, $3 DOMESTICS, $2 OFF DRAFTS, $5 GLASSES OF SPANISH WINE</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1079009"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.518178"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Wiseguy Lounge "</t>
   </si>
   <si>
@@ -782,6 +932,12 @@
   </si>
   <si>
     <t xml:space="preserve">"11AM–1AM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1091302"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5118141"</t>
   </si>
   <si>
     <t xml:space="preserve">"Revel OTR Urban Winery"</t>
@@ -807,6 +963,12 @@
     <t xml:space="preserve">Sangria Sunday 12-10PM
 $7 Red &amp; White Wine Sangrias, Traditional Mimosas, Draft Beers, $5 Limoncello Crema, $4 Limoncello ClassicSangria Sunday 12-10PM
 $7 Red &amp; White Wine Sangrias, Traditional Mimosas, Draft Beers, $5 Limoncello Crema, $4 Limoncello Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1085275"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5126641"</t>
   </si>
   <si>
     <t xml:space="preserve">Kaze</t>
@@ -855,6 +1017,12 @@
    • Specialty cocktails are $5
    • Discounted select sushi rolls
    • Ramen is only $4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1110442"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5152882"</t>
   </si>
   <si>
     <t xml:space="preserve">Ché</t>
@@ -909,6 +1077,12 @@
 Saturdays and Sundays from  11am to 3pm.</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1108982"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5135673"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"The Hub"</t>
   </si>
   <si>
@@ -921,6 +1095,12 @@
     <t xml:space="preserve">http://thehubotr.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1089554444444"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.51171"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Four Entertainment Group"</t>
   </si>
   <si>
@@ -934,6 +1114,12 @@
   </si>
   <si>
     <t xml:space="preserve">"10AM–6PM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1110911428571"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5153729591837"</t>
   </si>
   <si>
     <t xml:space="preserve">"The Mercer OTR"</t>
@@ -977,6 +1163,12 @@
 cocktails, wines by the glass, and beer specials.</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1101752"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5150813"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pontiac BBQ"</t>
   </si>
   <si>
@@ -995,6 +1187,12 @@
     <t xml:space="preserve">"11AM–11PM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1107045"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5155743"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"THE FUEL LOUNGE OTR"</t>
   </si>
   <si>
@@ -1010,6 +1208,12 @@
     <t xml:space="preserve">"Close"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1120257"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5121277620096"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Please"</t>
   </si>
   <si>
@@ -1034,6 +1238,12 @@
     <t xml:space="preserve">"Happy Hour runs Wednesday through Friday 5:30-7:30 with cocktail, wine glass &amp; bottle specials."</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1113753"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5131298"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"The Pony"</t>
   </si>
   <si>
@@ -1041,6 +1251,12 @@
   </si>
   <si>
     <t xml:space="preserve">"(513) 954-8415"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1111356"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5119275"</t>
   </si>
   <si>
     <t xml:space="preserve">"The Righteous Room"</t>
@@ -1134,6 +1350,12 @@
 Half-price drinks</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1035073421053"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5120170263158"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Rosedale"</t>
   </si>
   <si>
@@ -1153,6 +1375,12 @@
 Half Price Drinks (excluding house cocktails and bottles of wine)</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.109344"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.511072"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Miltons The Prospect Hill Tavern"</t>
   </si>
   <si>
@@ -1162,6 +1390,12 @@
     <t xml:space="preserve">"(513) 784-9938"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.11334"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.509693"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Queen City Exchange"</t>
   </si>
   <si>
@@ -1174,6 +1408,12 @@
     <t xml:space="preserve">http://www.queencityexchange.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.106282"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5153191"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Race Inn"</t>
   </si>
   <si>
@@ -1184,6 +1424,12 @@
   </si>
   <si>
     <t xml:space="preserve">"1–8PM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1132835"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5175945"</t>
   </si>
   <si>
     <t xml:space="preserve">"Mt. Adams Pavilion"</t>
@@ -1236,6 +1482,12 @@
 $5 Margaritas (frozen or rocks)</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1075596666667"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4971821111111"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Symphony Hotel Jazz Lounge"</t>
   </si>
   <si>
@@ -1254,6 +1506,12 @@
     <t xml:space="preserve">"8–11PM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1101737"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5192065"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Maplewood Kitchen and Bar"</t>
   </si>
   <si>
@@ -1278,6 +1536,12 @@
     <t xml:space="preserve">"8AM–9PM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1018325"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5151463"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"OTR LIVE"</t>
   </si>
   <si>
@@ -1291,6 +1555,12 @@
   </si>
   <si>
     <t xml:space="preserve">"9AM–4AM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.10939695"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5110322267084"</t>
   </si>
   <si>
     <t xml:space="preserve">Igby's</t>
@@ -1367,6 +1637,12 @@
 (Tito’s Handmade Vodka, El Jimador Tequila, Tanqueray Gin, Old Forester Whiskey, &amp; Captain Morgan White Rum)</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1028889633675"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5109204945222"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shooks - Bar &amp; Dance</t>
   </si>
   <si>
@@ -1379,6 +1655,12 @@
     <t xml:space="preserve">https://m.facebook.com/Shooks920/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.105299"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5156075714286"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Knockback Nats</t>
   </si>
   <si>
@@ -1394,6 +1676,12 @@
     <t xml:space="preserve">https://www.facebook.com/Knockback-Nats-Neighborhood-Bar-146296676362/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1038396"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5141989"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Nicholson's Tavern &amp; Pub"</t>
   </si>
   <si>
@@ -1409,6 +1697,12 @@
     <t xml:space="preserve">http://www.nicholsonspub.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1031773"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5120802"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corkopolis</t>
   </si>
   <si>
@@ -1421,6 +1715,12 @@
     <t xml:space="preserve">http://www.corkopolis.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1039354"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5100858"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Metropole"</t>
   </si>
   <si>
@@ -1439,6 +1739,12 @@
     <t xml:space="preserve">"7AM–11PM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1031016"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5120392"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"The Blind Lemon"</t>
   </si>
   <si>
@@ -1460,6 +1766,12 @@
     <t xml:space="preserve">"3PM–2:30AM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.109372"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.497458"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Scene Ultra Lounge"</t>
   </si>
   <si>
@@ -1478,6 +1790,12 @@
     <t xml:space="preserve">"Half Price Happy Hour 4-8PM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1034877105263"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5120121315789"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Tokyo Kitty"</t>
   </si>
   <si>
@@ -1490,6 +1808,12 @@
     <t xml:space="preserve">http://thattokyobar.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1020465"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5150943"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"The Cricket Lounge"</t>
   </si>
   <si>
@@ -1508,6 +1832,12 @@
     <t xml:space="preserve">"11:30AM–1AM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.102544"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.513429"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Top of the Park at The Phelps"</t>
   </si>
   <si>
@@ -1521,6 +1851,12 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.topoftheparkcincinnati.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1025707727273"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5019645"</t>
   </si>
   <si>
     <t xml:space="preserve">"Hightail"</t>
@@ -1561,6 +1897,12 @@
 Dog-friendly yappy hour. Half-price drinks and dog treats / swag available while supplies last.</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1075645555556"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4972489259259"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Holy Grail Tavern &amp; Grille"</t>
   </si>
   <si>
@@ -1580,6 +1922,12 @@
   </si>
   <si>
     <t xml:space="preserve">" All UC and Xavier televised basketball games 5 for $10 domestic buckets"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.0975783"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5090142"</t>
   </si>
   <si>
     <t xml:space="preserve">"The Stretch"</t>
@@ -1612,6 +1960,12 @@
 $4 bombs
 $4 Rumpleminze
 $4 Fireball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.097176"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5093324"</t>
   </si>
   <si>
     <t xml:space="preserve">"Tin Roof"</t>
@@ -1688,6 +2042,12 @@
     <t xml:space="preserve">Sunday:  $15 Bottomles Mimosas,  $5 Bloody Mary's </t>
   </si>
   <si>
+    <t xml:space="preserve">"39.097524"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.509556"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"O'Malleys In the Alley"</t>
   </si>
   <si>
@@ -1731,6 +2091,12 @@
 Service Industry friends enjoy 30% off drinks all day. We also feature Clark’s Famous Furknocker Bloody Marys for $4. Snag a pitcher of draft beer for only $10.50 All. Day. Long.</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.099223"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.513532"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moerlein Lager House</t>
   </si>
   <si>
@@ -1746,6 +2112,12 @@
     <t xml:space="preserve">http://www.moerleinlagerhouse.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.09630095"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.5087167704914"</t>
+  </si>
+  <si>
     <t xml:space="preserve">JerZees Pub &amp; Grub</t>
   </si>
   <si>
@@ -1762,6 +2134,12 @@
   </si>
   <si>
     <t xml:space="preserve">http://jerzeespub.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.0901104046977"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4923346489161"</t>
   </si>
   <si>
     <t xml:space="preserve">"Oakley Pub &amp; Grill"</t>
@@ -1806,6 +2184,12 @@
 Happy Hour Food &amp; Drink Specials 3-6PM &amp; 9PM - Close</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.15136225"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4320140420265"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Oak Tavern"</t>
   </si>
   <si>
@@ -1821,6 +2205,12 @@
     <t xml:space="preserve">http://www.oaktavernoakley.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1525388"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4306678797942"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Slammer's Lounge"</t>
   </si>
   <si>
@@ -1830,6 +2220,12 @@
     <t xml:space="preserve">"(513) 871-6847"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1539138586247"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4266419468094"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Habits Café"</t>
   </si>
   <si>
@@ -1846,6 +2242,12 @@
   </si>
   <si>
     <t xml:space="preserve">"9AM–2:30AM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1517762"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4328744"</t>
   </si>
   <si>
     <t xml:space="preserve">"Bar Louie"</t>
@@ -1873,6 +2275,12 @@
 and Flatbreads</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.158331"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4276546"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"R P Mc Murphy's Irish Pub"</t>
   </si>
   <si>
@@ -1886,6 +2294,12 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.rpmcmurphyspub.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.144556"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4350567"</t>
   </si>
   <si>
     <t xml:space="preserve">"The Casual Pint Oakley Station"</t>
@@ -1931,6 +2345,12 @@
 ​Enjoy 5 glass pours. Tasting takes places upstairs in The Tasting Room, but you're welcome to enjoy your wine downstairs in The Cellar.</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.152024"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4331021"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maribelle's eat + drink</t>
   </si>
   <si>
@@ -1949,6 +2369,12 @@
     <t xml:space="preserve">"5–9PM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1546832"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4261936"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Hap's Irish Pub"</t>
   </si>
   <si>
@@ -1961,6 +2387,12 @@
     <t xml:space="preserve">https://www.facebook.com/Haps-Irish-Pub-125057637545502/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1412901"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4187775"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Animations"</t>
   </si>
   <si>
@@ -1968,6 +2400,12 @@
   </si>
   <si>
     <t xml:space="preserve">"(513) 871-7606"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1518389"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4319005"</t>
   </si>
   <si>
     <t xml:space="preserve">"Keystone Bar &amp; Grill"</t>
@@ -2023,6 +2461,12 @@
 $2 domestic bottles and half-price signature cocktails from 2pm-close</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.141479"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.421071"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Edge Inn Tavern"</t>
   </si>
   <si>
@@ -2033,6 +2477,12 @@
   </si>
   <si>
     <t xml:space="preserve">"1PM–2:30AM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1511605"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4424661"</t>
   </si>
   <si>
     <t xml:space="preserve">"Establishment"</t>
@@ -2070,6 +2520,12 @@
 $3.00 Well Liquor Drinks</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1445352"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4354027"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Unwind Wine Bar &amp; Light Fare"</t>
   </si>
   <si>
@@ -2088,6 +2544,12 @@
     <t xml:space="preserve">"4PM–1:15AM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1387176"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4419998"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"MadTree Brewing"</t>
   </si>
   <si>
@@ -2107,6 +2569,12 @@
   </si>
   <si>
     <t xml:space="preserve">"10AM–11PM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1563725"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4239715"</t>
   </si>
   <si>
     <t xml:space="preserve">"The Pub at Rookwood Mews"</t>
@@ -2150,6 +2618,12 @@
 All members of the military receive a 25% discount on food purchases when they present a military ID.</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1482873"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4427869"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Dutch's"</t>
   </si>
   <si>
@@ -2165,6 +2639,12 @@
     <t xml:space="preserve">http://www.dutchscincinnati.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1414011"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4215840603453"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"MILLIONS CAFÉ"</t>
   </si>
   <si>
@@ -2177,6 +2657,12 @@
     <t xml:space="preserve">http://www.millions-cafe.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1282003"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4299379"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Hooligan's Pub &amp; Eatery"</t>
   </si>
   <si>
@@ -2192,6 +2678,12 @@
     <t xml:space="preserve">http://www.hooligans-pub.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.167171"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.429478"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"BrewRiver GastroPub"</t>
   </si>
   <si>
@@ -2210,6 +2702,12 @@
     <t xml:space="preserve">"10AM–10PM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1217775"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4751191"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Mt. Lookout Tavern"</t>
   </si>
   <si>
@@ -2222,6 +2720,12 @@
     <t xml:space="preserve">http://www.mtlookouttavern.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1226349"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4186019"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Zip's Café"</t>
   </si>
   <si>
@@ -2243,6 +2747,12 @@
     <t xml:space="preserve">"10:30AM–11:30PM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1297005"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4293832"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Proof Bar"</t>
   </si>
   <si>
@@ -2252,6 +2762,12 @@
     <t xml:space="preserve">"5PM–2:30AM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1288464"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4305803"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pearl's Bar"</t>
   </si>
   <si>
@@ -2267,6 +2783,12 @@
     <t xml:space="preserve">http://www.pearls-cincy.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.11607725"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4389978359318"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"The Hi-Mark"</t>
   </si>
   <si>
@@ -2285,6 +2807,12 @@
     <t xml:space="preserve">"4PM–12AMM–12AM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.118528"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.443819"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Spittoon Saloon"</t>
   </si>
   <si>
@@ -2294,6 +2822,12 @@
     <t xml:space="preserve">"5PM–3AM"</t>
   </si>
   <si>
+    <t xml:space="preserve">"39.1225108552086"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4154351749061"</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Cock &amp; Bull Public House Hyde Park Square"</t>
   </si>
   <si>
@@ -2307,6 +2841,12 @@
   </si>
   <si>
     <t xml:space="preserve">"Pint Night - 6PM Keep the Glass"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"39.1394519"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-84.4434628"</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2856,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2337,11 +2877,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2386,7 +2921,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2401,10 +2936,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2426,8 +2957,8 @@
   </sheetPr>
   <dimension ref="A1:X92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z5" activeCellId="0" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2447,8 +2978,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="202.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="1" width="296.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="145.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="6.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="19.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="20.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="25" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2571,11 +3103,11 @@
       <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="1" t="n">
-        <v>39.111325</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>-84.51750995</v>
+      <c r="W2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2583,49 +3115,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>39.1094369</v>
-      </c>
-      <c r="X3" s="1" t="n">
-        <v>-84.5160001</v>
+        <v>45</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2633,49 +3165,49 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>39.1076943</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>-84.5148587</v>
+        <v>55</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2683,70 +3215,70 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W5" s="1" t="n">
-        <v>39.1093292</v>
-      </c>
-      <c r="X5" s="1" t="n">
-        <v>-84.5152165</v>
+        <v>64</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2754,58 +3286,58 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="W6" s="1" t="n">
-        <v>39.1088678</v>
-      </c>
-      <c r="X6" s="1" t="n">
-        <v>-84.5113795</v>
+        <v>76</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2813,49 +3345,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W7" s="1" t="n">
-        <v>39.108539</v>
-      </c>
-      <c r="X7" s="1" t="n">
-        <v>-84.5124497</v>
+        <v>85</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2863,49 +3395,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W8" s="1" t="n">
-        <v>39.111099</v>
-      </c>
-      <c r="X8" s="1" t="n">
-        <v>-84.5123402</v>
+        <v>94</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2913,49 +3445,49 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W9" s="1" t="n">
-        <v>39.1086918</v>
-      </c>
-      <c r="X9" s="1" t="n">
-        <v>-84.5150696</v>
+        <v>54</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2963,70 +3495,70 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W10" s="1" t="n">
-        <v>39.10836</v>
-      </c>
-      <c r="X10" s="1" t="n">
-        <v>-84.5128840013411</v>
+        <v>109</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3034,49 +3566,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="W11" s="1" t="n">
-        <v>39.1072609</v>
-      </c>
-      <c r="X11" s="1" t="n">
-        <v>-84.514515</v>
+        <v>121</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="57.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3084,73 +3616,73 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="W12" s="1" t="n">
-        <v>39.1073976</v>
-      </c>
-      <c r="X12" s="1" t="n">
-        <v>-84.5159119</v>
+        <v>139</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="135.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3158,70 +3690,70 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="W13" s="1" t="n">
-        <v>39.1103807</v>
-      </c>
-      <c r="X13" s="1" t="n">
-        <v>-84.5163092</v>
+        <v>151</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="57.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3229,64 +3761,64 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="W14" s="1" t="n">
-        <v>39.1096956</v>
-      </c>
-      <c r="X14" s="1" t="n">
-        <v>-84.5127973</v>
+        <v>163</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3294,49 +3826,49 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W15" s="1" t="n">
-        <v>39.1078318</v>
-      </c>
-      <c r="X15" s="1" t="n">
-        <v>-84.519097</v>
+        <v>147</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3344,49 +3876,49 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W16" s="1" t="n">
-        <v>39.1083636153846</v>
-      </c>
-      <c r="X16" s="1" t="n">
-        <v>-84.5130170769231</v>
+        <v>42</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3394,49 +3926,49 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W17" s="1" t="n">
-        <v>39.10859605</v>
-      </c>
-      <c r="X17" s="1" t="n">
-        <v>-84.5152225113226</v>
+        <v>130</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3444,43 +3976,43 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W18" s="1" t="n">
-        <v>39.1092069</v>
-      </c>
-      <c r="X18" s="1" t="n">
-        <v>-84.5104021</v>
+        <v>158</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3488,49 +4020,49 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W19" s="1" t="n">
-        <v>39.11047</v>
-      </c>
-      <c r="X19" s="4" t="n">
-        <v>-84.516829</v>
+        <v>42</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="192.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3538,64 +4070,64 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="W20" s="1" t="n">
-        <v>39.1104288</v>
-      </c>
-      <c r="X20" s="1" t="n">
-        <v>-84.5171923</v>
+        <v>210</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3603,49 +4135,49 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="W21" s="1" t="n">
-        <v>39.1090279</v>
-      </c>
-      <c r="X21" s="1" t="n">
-        <v>-84.5148005</v>
+        <v>218</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3653,49 +4185,49 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="W22" s="1" t="n">
-        <v>39.1097757</v>
-      </c>
-      <c r="X22" s="1" t="n">
-        <v>-84.508276</v>
+        <v>227</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3703,49 +4235,49 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W23" s="1" t="n">
-        <v>39.1091052</v>
-      </c>
-      <c r="X23" s="1" t="n">
-        <v>-84.5114524</v>
+        <v>44</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3753,25 +4285,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>30</v>
@@ -3789,13 +4321,13 @@
         <v>31</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W24" s="1" t="n">
-        <v>39.1087911</v>
-      </c>
-      <c r="X24" s="1" t="n">
-        <v>-84.5147421</v>
+        <v>42</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3803,49 +4335,49 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="W25" s="1" t="n">
-        <v>39.110617</v>
-      </c>
-      <c r="X25" s="1" t="n">
-        <v>-84.512122</v>
+        <v>251</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="102.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3853,64 +4385,64 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="W26" s="1" t="n">
-        <v>39.1079009</v>
-      </c>
-      <c r="X26" s="1" t="n">
-        <v>-84.518178</v>
+        <v>262</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3918,46 +4450,46 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="W27" s="1" t="n">
-        <v>39.1091302</v>
-      </c>
-      <c r="X27" s="1" t="n">
-        <v>-84.5118141</v>
+        <v>269</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3965,61 +4497,61 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="Q28" s="3" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="W28" s="1" t="n">
-        <v>39.1085275</v>
-      </c>
-      <c r="X28" s="1" t="n">
-        <v>-84.5126641</v>
+        <v>278</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="79.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4027,70 +4559,70 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="W29" s="1" t="n">
-        <v>39.1110442</v>
-      </c>
-      <c r="X29" s="1" t="n">
-        <v>-84.5152882</v>
+        <v>291</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="124.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4098,70 +4630,70 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="W30" s="1" t="n">
-        <v>39.1108982</v>
-      </c>
-      <c r="X30" s="1" t="n">
-        <v>-84.5135673</v>
+        <v>304</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4169,46 +4701,46 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W31" s="1" t="n">
-        <v>39.1089554444444</v>
-      </c>
-      <c r="X31" s="1" t="n">
-        <v>-84.51171</v>
+        <v>43</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4216,46 +4748,46 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W32" s="1" t="n">
-        <v>39.1110911428571</v>
-      </c>
-      <c r="X32" s="1" t="n">
-        <v>-84.5153729591837</v>
+        <v>42</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4263,64 +4795,64 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>262</v>
+        <v>324</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>264</v>
+        <v>326</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="W33" s="1" t="n">
-        <v>39.1101752</v>
-      </c>
-      <c r="X33" s="1" t="n">
-        <v>-84.5150813</v>
+        <v>330</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4328,49 +4860,49 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="W34" s="1" t="n">
-        <v>39.1107045</v>
-      </c>
-      <c r="X34" s="1" t="n">
-        <v>-84.5155743</v>
+        <v>129</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4378,43 +4910,43 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="W35" s="1" t="n">
-        <v>39.1120257</v>
-      </c>
-      <c r="X35" s="1" t="n">
-        <v>-84.5121277620096</v>
+        <v>345</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4422,58 +4954,58 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>283</v>
+        <v>351</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>284</v>
+        <v>352</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>285</v>
+        <v>353</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>286</v>
+        <v>354</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>286</v>
+        <v>354</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>286</v>
+        <v>354</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>286</v>
+        <v>354</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="W36" s="1" t="n">
-        <v>39.1113753</v>
-      </c>
-      <c r="X36" s="1" t="n">
-        <v>-84.5131298</v>
+        <v>355</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4481,43 +5013,43 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>289</v>
+        <v>359</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W37" s="1" t="n">
-        <v>39.1111356</v>
-      </c>
-      <c r="X37" s="1" t="n">
-        <v>-84.5119275</v>
+        <v>44</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="147.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4525,70 +5057,70 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>292</v>
+        <v>364</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>293</v>
+        <v>365</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>294</v>
+        <v>366</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>295</v>
+        <v>367</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>297</v>
+        <v>369</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>298</v>
+        <v>370</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>300</v>
+        <v>372</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="W38" s="1" t="n">
-        <v>39.1035073421053</v>
-      </c>
-      <c r="X38" s="1" t="n">
-        <v>-84.5120170263158</v>
+        <v>374</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4596,61 +5128,61 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>305</v>
+        <v>379</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="W39" s="1" t="n">
-        <v>39.109344</v>
-      </c>
-      <c r="X39" s="1" t="n">
-        <v>-84.511072</v>
+        <v>382</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4658,43 +5190,43 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W40" s="1" t="n">
-        <v>39.11334</v>
-      </c>
-      <c r="X40" s="1" t="n">
-        <v>-84.509693</v>
+        <v>146</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4702,46 +5234,46 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>315</v>
+        <v>393</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="W41" s="1" t="n">
-        <v>39.106282</v>
-      </c>
-      <c r="X41" s="1" t="n">
-        <v>-84.5153191</v>
+        <v>218</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4749,43 +5281,43 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="W42" s="1" t="n">
-        <v>39.1132835</v>
-      </c>
-      <c r="X42" s="1" t="n">
-        <v>-84.5175945</v>
+        <v>399</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="124.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4793,58 +5325,58 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>320</v>
+        <v>402</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>324</v>
+        <v>406</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>325</v>
+        <v>407</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>325</v>
+        <v>407</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>325</v>
+        <v>407</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>325</v>
+        <v>407</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>326</v>
+        <v>408</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>327</v>
+        <v>409</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="W43" s="1" t="n">
-        <v>39.1075596666667</v>
-      </c>
-      <c r="X43" s="1" t="n">
-        <v>-84.4971821111111</v>
+        <v>410</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4852,46 +5384,46 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>329</v>
+        <v>413</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>330</v>
+        <v>414</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>331</v>
+        <v>415</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>332</v>
+        <v>416</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>334</v>
+        <v>418</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>334</v>
+        <v>418</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W44" s="1" t="n">
-        <v>39.1101737</v>
-      </c>
-      <c r="X44" s="1" t="n">
-        <v>-84.5192065</v>
+        <v>42</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4899,49 +5431,49 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>335</v>
+        <v>421</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>336</v>
+        <v>422</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>337</v>
+        <v>423</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>339</v>
+        <v>425</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="W45" s="1" t="n">
-        <v>39.1018325</v>
-      </c>
-      <c r="X45" s="1" t="n">
-        <v>-84.5151463</v>
+        <v>428</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4949,46 +5481,46 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>343</v>
+        <v>431</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>344</v>
+        <v>432</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>345</v>
+        <v>433</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>346</v>
+        <v>434</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="W46" s="1" t="n">
-        <v>39.10939695</v>
-      </c>
-      <c r="X46" s="1" t="n">
-        <v>-84.5110322267084</v>
+        <v>435</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="113.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4996,64 +5528,64 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>348</v>
+        <v>438</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>351</v>
+        <v>441</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>352</v>
+        <v>442</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>353</v>
+        <v>443</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>354</v>
+        <v>444</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>355</v>
+        <v>445</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>356</v>
+        <v>446</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="W47" s="1" t="n">
-        <v>39.1028889633675</v>
-      </c>
-      <c r="X47" s="1" t="n">
-        <v>-84.5109204945222</v>
+        <v>447</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5061,46 +5593,46 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>358</v>
+        <v>450</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>359</v>
+        <v>451</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>360</v>
+        <v>452</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>361</v>
+        <v>453</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W48" s="1" t="n">
-        <v>39.105299</v>
-      </c>
-      <c r="X48" s="1" t="n">
-        <v>-84.5156075714286</v>
+        <v>42</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5108,49 +5640,49 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>362</v>
+        <v>456</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>363</v>
+        <v>457</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>364</v>
+        <v>458</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>365</v>
+        <v>459</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W49" s="1" t="n">
-        <v>39.1038396</v>
-      </c>
-      <c r="X49" s="1" t="n">
-        <v>-84.5141989</v>
+        <v>44</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5158,49 +5690,49 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>368</v>
+        <v>464</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>369</v>
+        <v>465</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>370</v>
+        <v>466</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>371</v>
+        <v>467</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="W50" s="1" t="n">
-        <v>39.1031773</v>
-      </c>
-      <c r="X50" s="1" t="n">
-        <v>-84.5120802</v>
+        <v>129</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5208,46 +5740,46 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>373</v>
+        <v>471</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>374</v>
+        <v>472</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>375</v>
+        <v>473</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W51" s="1" t="n">
-        <v>39.1039354</v>
-      </c>
-      <c r="X51" s="1" t="n">
-        <v>-84.5100858</v>
+        <v>42</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5255,49 +5787,49 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>376</v>
+        <v>476</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>377</v>
+        <v>477</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>378</v>
+        <v>478</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>379</v>
+        <v>479</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>381</v>
+        <v>481</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>381</v>
+        <v>481</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="W52" s="1" t="n">
-        <v>39.1031016</v>
-      </c>
-      <c r="X52" s="1" t="n">
-        <v>-84.5120392</v>
+        <v>427</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5305,49 +5837,49 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>382</v>
+        <v>484</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>385</v>
+        <v>487</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>386</v>
+        <v>488</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>387</v>
+        <v>489</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>387</v>
+        <v>489</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>387</v>
+        <v>489</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>387</v>
+        <v>489</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>387</v>
+        <v>489</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="W53" s="1" t="n">
-        <v>39.109372</v>
-      </c>
-      <c r="X53" s="1" t="n">
-        <v>-84.497458</v>
+        <v>490</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5355,70 +5887,70 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>389</v>
+        <v>493</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>390</v>
+        <v>494</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>391</v>
+        <v>495</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>392</v>
+        <v>496</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="W54" s="1" t="n">
-        <v>39.1034877105263</v>
-      </c>
-      <c r="X54" s="1" t="n">
-        <v>-84.5120121315789</v>
+        <v>498</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5426,46 +5958,46 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>395</v>
+        <v>501</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>397</v>
+        <v>503</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>398</v>
+        <v>504</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="W55" s="1" t="n">
-        <v>39.1020465</v>
-      </c>
-      <c r="X55" s="1" t="n">
-        <v>-84.5150943</v>
+        <v>73</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5473,49 +6005,49 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>399</v>
+        <v>507</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>400</v>
+        <v>508</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>401</v>
+        <v>509</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>402</v>
+        <v>510</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>403</v>
+        <v>511</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>404</v>
+        <v>512</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>404</v>
+        <v>512</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>404</v>
+        <v>512</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>404</v>
+        <v>512</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>404</v>
+        <v>512</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>404</v>
+        <v>512</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="W56" s="1" t="n">
-        <v>39.102544</v>
-      </c>
-      <c r="X56" s="1" t="n">
-        <v>-84.513429</v>
+        <v>512</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5523,49 +6055,49 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>405</v>
+        <v>515</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>406</v>
+        <v>516</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>407</v>
+        <v>517</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>408</v>
+        <v>518</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>409</v>
+        <v>519</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W57" s="1" t="n">
-        <v>39.1025707727273</v>
-      </c>
-      <c r="X57" s="1" t="n">
-        <v>-84.5019645</v>
+        <v>42</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="124.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5573,58 +6105,58 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>410</v>
+        <v>522</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>411</v>
+        <v>523</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>412</v>
+        <v>524</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>413</v>
+        <v>525</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>414</v>
+        <v>526</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>414</v>
+        <v>526</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>415</v>
+        <v>527</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="W58" s="1" t="n">
-        <v>39.1075645555556</v>
-      </c>
-      <c r="X58" s="1" t="n">
-        <v>-84.4972489259259</v>
+        <v>528</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5632,52 +6164,52 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>417</v>
+        <v>531</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>418</v>
+        <v>532</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>420</v>
+        <v>534</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>421</v>
+        <v>535</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>422</v>
+        <v>536</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="W59" s="1" t="n">
-        <v>39.0975783</v>
-      </c>
-      <c r="X59" s="1" t="n">
-        <v>-84.5090142</v>
+        <v>537</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="68.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5685,64 +6217,64 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>424</v>
+        <v>540</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>425</v>
+        <v>541</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>426</v>
+        <v>542</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>427</v>
+        <v>543</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>428</v>
+        <v>544</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>429</v>
+        <v>545</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>429</v>
+        <v>545</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>429</v>
+        <v>545</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>429</v>
+        <v>545</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="W60" s="1" t="n">
-        <v>39.097176</v>
-      </c>
-      <c r="X60" s="1" t="n">
-        <v>-84.5093324</v>
+        <v>546</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5750,70 +6282,70 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>431</v>
+        <v>549</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>432</v>
+        <v>550</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>433</v>
+        <v>551</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>434</v>
+        <v>552</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>435</v>
+        <v>553</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>436</v>
+        <v>554</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>436</v>
+        <v>554</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>436</v>
+        <v>554</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>436</v>
+        <v>554</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>436</v>
+        <v>554</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>436</v>
+        <v>554</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>436</v>
+        <v>554</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>437</v>
+        <v>555</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>438</v>
+        <v>556</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>439</v>
+        <v>557</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>440</v>
+        <v>558</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>441</v>
+        <v>559</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>442</v>
+        <v>560</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="W61" s="1" t="n">
-        <v>39.097524</v>
-      </c>
-      <c r="X61" s="1" t="n">
-        <v>-84.509556</v>
+        <v>561</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5821,70 +6353,70 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>444</v>
+        <v>564</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>445</v>
+        <v>565</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>446</v>
+        <v>566</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>447</v>
+        <v>567</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>448</v>
+        <v>568</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>449</v>
+        <v>569</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>451</v>
+        <v>571</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>452</v>
+        <v>572</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>453</v>
+        <v>573</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>454</v>
+        <v>574</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="W62" s="1" t="n">
-        <v>39.099223</v>
-      </c>
-      <c r="X62" s="1" t="n">
-        <v>-84.513532</v>
+        <v>575</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5892,49 +6424,49 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>456</v>
+        <v>578</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>457</v>
+        <v>579</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>458</v>
+        <v>580</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>459</v>
+        <v>581</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>460</v>
+        <v>582</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="W63" s="1" t="n">
-        <v>39.09630095</v>
-      </c>
-      <c r="X63" s="1" t="n">
-        <v>-84.5087167704914</v>
+        <v>338</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5942,49 +6474,49 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>461</v>
+        <v>585</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>462</v>
+        <v>586</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>464</v>
+        <v>588</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>465</v>
+        <v>589</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>466</v>
+        <v>590</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W64" s="1" t="n">
-        <v>39.0901104046977</v>
-      </c>
-      <c r="X64" s="1" t="n">
-        <v>-84.4923346489161</v>
+        <v>53</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5992,70 +6524,70 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>468</v>
+        <v>594</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>469</v>
+        <v>595</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>470</v>
+        <v>596</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>471</v>
+        <v>597</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>472</v>
+        <v>598</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>473</v>
+        <v>599</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>475</v>
+        <v>601</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>476</v>
+        <v>602</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>477</v>
+        <v>603</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>478</v>
+        <v>604</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="W65" s="1" t="n">
-        <v>39.15136225</v>
-      </c>
-      <c r="X65" s="1" t="n">
-        <v>-84.4320140420265</v>
+        <v>604</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6063,49 +6595,49 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>479</v>
+        <v>607</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>480</v>
+        <v>608</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>481</v>
+        <v>609</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>482</v>
+        <v>610</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>483</v>
+        <v>611</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="W66" s="1" t="n">
-        <v>39.1525388</v>
-      </c>
-      <c r="X66" s="1" t="n">
-        <v>-84.4306678797942</v>
+        <v>338</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6113,43 +6645,43 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>484</v>
+        <v>614</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>485</v>
+        <v>615</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>486</v>
+        <v>616</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W67" s="1" t="n">
-        <v>39.1539138586247</v>
-      </c>
-      <c r="X67" s="1" t="n">
-        <v>-84.4266419468094</v>
+        <v>147</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6157,49 +6689,49 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>487</v>
+        <v>619</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>488</v>
+        <v>620</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>489</v>
+        <v>621</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>490</v>
+        <v>622</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>491</v>
+        <v>623</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>492</v>
+        <v>624</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="W68" s="1" t="n">
-        <v>39.1517762</v>
-      </c>
-      <c r="X68" s="1" t="n">
-        <v>-84.4328744</v>
+        <v>624</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6207,64 +6739,64 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>493</v>
+        <v>627</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>494</v>
+        <v>628</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>495</v>
+        <v>629</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>496</v>
+        <v>630</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>497</v>
+        <v>631</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>498</v>
+        <v>632</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>498</v>
+        <v>632</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>498</v>
+        <v>632</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>498</v>
+        <v>632</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="W69" s="1" t="n">
-        <v>39.158331</v>
-      </c>
-      <c r="X69" s="1" t="n">
-        <v>-84.4276546</v>
+        <v>632</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6272,49 +6804,49 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>499</v>
+        <v>635</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>500</v>
+        <v>636</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>501</v>
+        <v>637</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>502</v>
+        <v>638</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>503</v>
+        <v>639</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W70" s="1" t="n">
-        <v>39.144556</v>
-      </c>
-      <c r="X70" s="1" t="n">
-        <v>-84.4350567</v>
+        <v>147</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6322,46 +6854,46 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>504</v>
+        <v>642</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>505</v>
+        <v>643</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>506</v>
+        <v>644</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>507</v>
+        <v>645</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="W71" s="1" t="n">
-        <v>39.158331</v>
-      </c>
-      <c r="X71" s="1" t="n">
-        <v>-84.4276546</v>
+        <v>646</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="57.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6369,64 +6901,64 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>509</v>
+        <v>647</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>510</v>
+        <v>648</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>511</v>
+        <v>649</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>512</v>
+        <v>650</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>513</v>
+        <v>651</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>513</v>
+        <v>651</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>513</v>
+        <v>651</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>513</v>
+        <v>651</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>514</v>
+        <v>652</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>514</v>
+        <v>652</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>515</v>
+        <v>653</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>515</v>
+        <v>653</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>515</v>
+        <v>653</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>515</v>
+        <v>653</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>516</v>
+        <v>654</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="W72" s="1" t="n">
-        <v>39.152024</v>
-      </c>
-      <c r="X72" s="1" t="n">
-        <v>-84.4331021</v>
+        <v>653</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6434,49 +6966,49 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>517</v>
+        <v>657</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>518</v>
+        <v>658</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>519</v>
+        <v>659</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>520</v>
+        <v>660</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>521</v>
+        <v>661</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>522</v>
+        <v>662</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>522</v>
+        <v>662</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>522</v>
+        <v>662</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="W73" s="1" t="n">
-        <v>39.1546832</v>
-      </c>
-      <c r="X73" s="1" t="n">
-        <v>-84.4261936</v>
+        <v>129</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6484,46 +7016,46 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>523</v>
+        <v>665</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>524</v>
+        <v>666</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>525</v>
+        <v>667</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>526</v>
+        <v>668</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>492</v>
+        <v>624</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W74" s="1" t="n">
-        <v>39.1412901</v>
-      </c>
-      <c r="X74" s="1" t="n">
-        <v>-84.4187775</v>
+        <v>147</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6531,43 +7063,43 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>527</v>
+        <v>671</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>528</v>
+        <v>672</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>529</v>
+        <v>673</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W75" s="1" t="n">
-        <v>39.1518389</v>
-      </c>
-      <c r="X75" s="1" t="n">
-        <v>-84.4319005</v>
+        <v>147</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="46.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6575,22 +7107,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>530</v>
+        <v>676</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>531</v>
+        <v>677</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>532</v>
+        <v>678</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>533</v>
+        <v>679</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>534</v>
+        <v>680</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>32</v>
@@ -6605,40 +7137,40 @@
         <v>32</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>472</v>
+        <v>598</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>535</v>
+        <v>681</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>536</v>
+        <v>682</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>537</v>
+        <v>683</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>538</v>
+        <v>684</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>539</v>
+        <v>685</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>540</v>
+        <v>686</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="W76" s="1" t="n">
-        <v>39.141479</v>
-      </c>
-      <c r="X76" s="4" t="n">
-        <v>-84.421071</v>
+        <v>687</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="X76" s="2" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6646,43 +7178,43 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>542</v>
+        <v>690</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>543</v>
+        <v>691</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>544</v>
+        <v>692</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>545</v>
+        <v>693</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>545</v>
+        <v>693</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>545</v>
+        <v>693</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>545</v>
+        <v>693</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>545</v>
+        <v>693</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W77" s="1" t="n">
-        <v>39.1511605</v>
-      </c>
-      <c r="X77" s="1" t="n">
-        <v>-84.4424661</v>
+        <v>147</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="57.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6690,67 +7222,67 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>546</v>
+        <v>696</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>547</v>
+        <v>697</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>548</v>
+        <v>698</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>549</v>
+        <v>699</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>551</v>
+        <v>701</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>551</v>
+        <v>701</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>551</v>
+        <v>701</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>551</v>
+        <v>701</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>552</v>
+        <v>702</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>553</v>
+        <v>703</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="W78" s="1" t="n">
-        <v>39.1445352</v>
-      </c>
-      <c r="X78" s="1" t="n">
-        <v>-84.4354027</v>
+        <v>703</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6758,49 +7290,49 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>554</v>
+        <v>706</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>555</v>
+        <v>707</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>556</v>
+        <v>708</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>557</v>
+        <v>709</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>558</v>
+        <v>710</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>559</v>
+        <v>711</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W79" s="1" t="n">
-        <v>39.1387176</v>
-      </c>
-      <c r="X79" s="1" t="n">
-        <v>-84.4419998</v>
+        <v>42</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6808,49 +7340,49 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>560</v>
+        <v>714</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>561</v>
+        <v>715</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>562</v>
+        <v>716</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>563</v>
+        <v>717</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>564</v>
+        <v>718</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>565</v>
+        <v>719</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="W80" s="1" t="n">
-        <v>39.1563725</v>
-      </c>
-      <c r="X80" s="1" t="n">
-        <v>-84.4239715</v>
+        <v>720</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="68.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6858,67 +7390,67 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>567</v>
+        <v>723</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>568</v>
+        <v>724</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>569</v>
+        <v>725</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>570</v>
+        <v>726</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>571</v>
+        <v>727</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>565</v>
+        <v>719</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>566</v>
+        <v>720</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>572</v>
+        <v>728</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>573</v>
+        <v>729</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>574</v>
+        <v>730</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>573</v>
+        <v>729</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>573</v>
+        <v>729</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="W81" s="1" t="n">
-        <v>39.1482873</v>
-      </c>
-      <c r="X81" s="1" t="n">
-        <v>-84.4427869</v>
+        <v>731</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6926,49 +7458,49 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>576</v>
+        <v>734</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>577</v>
+        <v>735</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>578</v>
+        <v>736</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>579</v>
+        <v>737</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>580</v>
+        <v>738</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="W82" s="1" t="n">
-        <v>39.1414011</v>
-      </c>
-      <c r="X82" s="1" t="n">
-        <v>-84.4215840603453</v>
+        <v>129</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6976,46 +7508,46 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>581</v>
+        <v>741</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>582</v>
+        <v>742</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>583</v>
+        <v>743</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>584</v>
+        <v>744</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>472</v>
+        <v>598</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="W83" s="1" t="n">
-        <v>39.1282003</v>
-      </c>
-      <c r="X83" s="1" t="n">
-        <v>-84.4299379</v>
+        <v>598</v>
+      </c>
+      <c r="W83" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7023,49 +7555,49 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>585</v>
+        <v>747</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>586</v>
+        <v>748</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>587</v>
+        <v>749</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>588</v>
+        <v>750</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>589</v>
+        <v>751</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W84" s="1" t="n">
-        <v>39.167171</v>
-      </c>
-      <c r="X84" s="1" t="n">
-        <v>-84.429478</v>
+        <v>93</v>
+      </c>
+      <c r="W84" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7073,49 +7605,49 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>590</v>
+        <v>754</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>592</v>
+        <v>756</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>593</v>
+        <v>757</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>594</v>
+        <v>758</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>595</v>
+        <v>759</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W85" s="1" t="n">
-        <v>39.1217775</v>
-      </c>
-      <c r="X85" s="1" t="n">
-        <v>-84.4751191</v>
+        <v>131</v>
+      </c>
+      <c r="W85" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7123,46 +7655,46 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>596</v>
+        <v>762</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>597</v>
+        <v>763</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>598</v>
+        <v>764</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>599</v>
+        <v>765</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W86" s="1" t="n">
-        <v>39.1226349</v>
-      </c>
-      <c r="X86" s="1" t="n">
-        <v>-84.4186019</v>
+        <v>93</v>
+      </c>
+      <c r="W86" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7170,49 +7702,49 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>600</v>
+        <v>768</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>601</v>
+        <v>769</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>602</v>
+        <v>770</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>603</v>
+        <v>771</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>604</v>
+        <v>772</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>605</v>
+        <v>773</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>605</v>
+        <v>773</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>605</v>
+        <v>773</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>605</v>
+        <v>773</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>606</v>
+        <v>774</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>606</v>
+        <v>774</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="W87" s="1" t="n">
-        <v>39.1297005</v>
-      </c>
-      <c r="X87" s="1" t="n">
-        <v>-84.4293832</v>
+        <v>338</v>
+      </c>
+      <c r="W87" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7220,40 +7752,40 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>607</v>
+        <v>777</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>608</v>
+        <v>778</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>609</v>
+        <v>779</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>609</v>
+        <v>779</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>609</v>
+        <v>779</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>609</v>
+        <v>779</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>609</v>
+        <v>779</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>609</v>
+        <v>779</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="W88" s="1" t="n">
-        <v>39.1288464</v>
-      </c>
-      <c r="X88" s="1" t="n">
-        <v>-84.4305803</v>
+        <v>779</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7261,49 +7793,49 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>610</v>
+        <v>782</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>611</v>
+        <v>783</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>612</v>
+        <v>784</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>613</v>
+        <v>785</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>614</v>
+        <v>786</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W89" s="1" t="n">
-        <v>39.11607725</v>
-      </c>
-      <c r="X89" s="1" t="n">
-        <v>-84.4389978359318</v>
+        <v>45</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7311,49 +7843,49 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>615</v>
+        <v>789</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>616</v>
+        <v>790</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>617</v>
+        <v>791</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>618</v>
+        <v>792</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>619</v>
+        <v>793</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>620</v>
+        <v>794</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W90" s="1" t="n">
-        <v>39.118528</v>
-      </c>
-      <c r="X90" s="1" t="n">
-        <v>-84.443819</v>
+        <v>45</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7361,40 +7893,40 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>621</v>
+        <v>797</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>622</v>
+        <v>798</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>623</v>
+        <v>799</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>623</v>
+        <v>799</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>623</v>
+        <v>799</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="W91" s="1" t="n">
-        <v>39.1225108552086</v>
-      </c>
-      <c r="X91" s="1" t="n">
-        <v>-84.4154351749061</v>
+        <v>799</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7402,49 +7934,49 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>624</v>
+        <v>802</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>625</v>
+        <v>803</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>626</v>
+        <v>804</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>627</v>
+        <v>805</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="W92" s="1" t="n">
-        <v>39.1394519</v>
-      </c>
-      <c r="X92" s="1" t="n">
-        <v>-84.4434628</v>
+        <v>806</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>
